--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `BiologicallyDerivedProduct.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `BiologicallyDerivedProduct.property` is mapped to FHIR R4 structure `BiologicallyDerivedProduct`, but has no target element specified.</t>
+Element `BiologicallyDerivedProduct.property` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:BiologicallyDerivedProduct</t>
   </si>
   <si>
     <t>ID</t>
@@ -348,7 +348,7 @@
   </si>
   <si>
     <t>Element `BiologicallyDerivedProduct.property.type` is part of an existing definition because parent element `BiologicallyDerivedProduct.property` requires a cross-version extension.
-Element `BiologicallyDerivedProduct.property.type` is mapped to FHIR R4 structure `BiologicallyDerivedProduct`, but has no target element specified.</t>
+Element `BiologicallyDerivedProduct.property.type` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>Element `BiologicallyDerivedProduct.property.value[x]` is part of an existing definition because parent element `BiologicallyDerivedProduct.property` requires a cross-version extension.
-Element `BiologicallyDerivedProduct.property.value[x]` is mapped to FHIR R4 structure `BiologicallyDerivedProduct`, but has no target element specified.</t>
+Element `BiologicallyDerivedProduct.property.value[x]` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -800,7 +800,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="148.796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.9140625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `BiologicallyDerivedProduct.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `BiologicallyDerivedProduct.property` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+Element `BiologicallyDerivedProduct.property` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -348,7 +348,7 @@
   </si>
   <si>
     <t>Element `BiologicallyDerivedProduct.property.type` is part of an existing definition because parent element `BiologicallyDerivedProduct.property` requires a cross-version extension.
-Element `BiologicallyDerivedProduct.property.type` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+Element `BiologicallyDerivedProduct.property.type` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -395,6 +395,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -434,7 +437,7 @@
   </si>
   <si>
     <t>Element `BiologicallyDerivedProduct.property.value[x]` is part of an existing definition because parent element `BiologicallyDerivedProduct.property` requires a cross-version extension.
-Element `BiologicallyDerivedProduct.property.value[x]` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+Element `BiologicallyDerivedProduct.property.value[x]` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -444,6 +447,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -800,7 +806,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.9140625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="161.9296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1610,7 +1616,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1652,7 +1658,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1667,15 +1673,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1698,7 +1704,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>103</v>
@@ -1757,7 +1763,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1769,21 +1775,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1808,16 +1814,16 @@
         <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>108</v>
@@ -1989,7 +1995,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>110</v>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>116</v>
@@ -2137,7 +2143,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2179,7 +2185,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2194,15 +2200,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2225,16 +2231,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2284,7 +2290,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2296,18 +2302,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2389,7 +2395,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -2404,15 +2410,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2435,13 +2441,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2492,7 +2498,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2504,10 +2510,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="145">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -347,8 +347,7 @@
     <t>The element is identified by name and system URI in the type. Some types may have multiple occurrences.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.property.type` is part of an existing definition because parent element `BiologicallyDerivedProduct.property` requires a cross-version extension.
-Element `BiologicallyDerivedProduct.property.type` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.property.type` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -395,9 +394,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -414,6 +410,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Biologically Derived Product Property Type Codes</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-biologicallyderived-product-property-type-codes-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -436,8 +441,7 @@
     <t>The value should be provided as a boolean, integer, CodeableConcept, period, quantity, range, ratio, or attachment. The description can be a string only when these others are not available. The type of value will depend on the property type and is specified in ST-027.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.property.value[x]` is part of an existing definition because parent element `BiologicallyDerivedProduct.property` requires a cross-version extension.
-Element `BiologicallyDerivedProduct.property.value[x]` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.property.value[x]` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -447,9 +451,6 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -816,8 +817,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.50390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1616,72 +1617,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1704,7 +1705,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>103</v>
@@ -1739,13 +1740,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1763,7 +1764,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1775,21 +1776,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1814,16 +1815,16 @@
         <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1892,7 +1893,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>108</v>
@@ -1995,7 +1996,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>110</v>
@@ -2100,7 +2101,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>116</v>
@@ -2143,7 +2144,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2185,30 +2186,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2231,16 +2232,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2290,7 +2291,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2302,18 +2303,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2395,30 +2396,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2441,13 +2442,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2498,7 +2499,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2510,10 +2511,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
